--- a/out/CE/falselink/Figori_algorithm_7.xlsx
+++ b/out/CE/falselink/Figori_algorithm_7.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.72499999999999998</v>
+        <v>0.73334999999999995</v>
       </c>
       <c r="B1">
-        <v>0.7167</v>
+        <v>0.72</v>
       </c>
       <c r="C1">
-        <v>0.71855000000000002</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="D1">
-        <v>0.72655000000000003</v>
+        <v>0.71425000000000005</v>
       </c>
       <c r="E1">
-        <v>0.7268</v>
+        <v>0.72724999999999995</v>
       </c>
       <c r="F1">
-        <v>0.70389999999999997</v>
+        <v>0.70615000000000006</v>
       </c>
       <c r="G1">
-        <v>0.73129999999999995</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="H1">
-        <v>0.73219999999999996</v>
+        <v>0.71765000000000001</v>
       </c>
       <c r="I1">
-        <v>0.72545000000000004</v>
+        <v>0.72694999999999999</v>
       </c>
       <c r="J1">
+        <v>0.73145000000000004</v>
+      </c>
+      <c r="K1">
+        <v>0.7399</v>
+      </c>
+      <c r="L1">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="N1">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="P1">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="Q1">
+        <v>0.7056</v>
+      </c>
+      <c r="R1">
+        <v>0.72155000000000002</v>
+      </c>
+      <c r="S1">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.72375</v>
+      </c>
+      <c r="U1">
+        <v>0.72745000000000004</v>
+      </c>
+      <c r="V1">
+        <v>0.73314999999999997</v>
+      </c>
+      <c r="W1">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="X1">
+        <v>0.71689999999999998</v>
+      </c>
+      <c r="Y1">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="AA1">
+        <v>0.72335000000000005</v>
+      </c>
+      <c r="AB1">
+        <v>0.73545000000000005</v>
+      </c>
+      <c r="AC1">
+        <v>0.73645000000000005</v>
+      </c>
+      <c r="AD1">
+        <v>0.71194999999999997</v>
+      </c>
+      <c r="AE1">
+        <v>0.72194999999999998</v>
+      </c>
+      <c r="AF1">
+        <v>0.74265000000000003</v>
+      </c>
+      <c r="AG1">
+        <v>0.74385000000000001</v>
+      </c>
+      <c r="AH1">
+        <v>0.72924999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.72414999999999996</v>
+      </c>
+      <c r="AJ1">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.71484999999999999</v>
+      </c>
+      <c r="AL1">
         <v>0.72770000000000001</v>
       </c>
-      <c r="K1">
-        <v>0.7157</v>
-      </c>
-      <c r="L1">
-        <v>0.71694999999999998</v>
-      </c>
-      <c r="M1">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="N1">
-        <v>0.71930000000000005</v>
-      </c>
-      <c r="O1">
-        <v>0.73545000000000005</v>
-      </c>
-      <c r="P1">
-        <v>0.73275000000000001</v>
-      </c>
-      <c r="Q1">
-        <v>0.73119999999999996</v>
-      </c>
-      <c r="R1">
-        <v>0.73045000000000004</v>
-      </c>
-      <c r="S1">
-        <v>0.74160000000000004</v>
-      </c>
-      <c r="T1">
-        <v>0.74234999999999995</v>
-      </c>
-      <c r="U1">
-        <v>0.70569999999999999</v>
-      </c>
-      <c r="V1">
-        <v>0.72535000000000005</v>
-      </c>
-      <c r="W1">
-        <v>0.72545000000000004</v>
-      </c>
-      <c r="X1">
-        <v>0.72130000000000005</v>
-      </c>
-      <c r="Y1">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="Z1">
-        <v>0.74380000000000002</v>
-      </c>
-      <c r="AA1">
-        <v>0.72314999999999996</v>
-      </c>
-      <c r="AB1">
-        <v>0.72265000000000001</v>
-      </c>
-      <c r="AC1">
-        <v>0.73365000000000002</v>
-      </c>
-      <c r="AD1">
-        <v>0.68189999999999995</v>
-      </c>
-      <c r="AE1">
-        <v>0.70620000000000005</v>
-      </c>
-      <c r="AF1">
-        <v>0.72735000000000005</v>
-      </c>
-      <c r="AG1">
-        <v>0.72175</v>
-      </c>
-      <c r="AH1">
-        <v>0.74070000000000003</v>
-      </c>
-      <c r="AI1">
-        <v>0.74570000000000003</v>
-      </c>
-      <c r="AJ1">
-        <v>0.73394999999999999</v>
-      </c>
-      <c r="AK1">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="AL1">
-        <v>0.73450000000000004</v>
-      </c>
       <c r="AM1">
-        <v>0.73294999999999999</v>
+        <v>0.73385</v>
       </c>
       <c r="AN1">
-        <v>0.72199999999999998</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="AO1">
-        <v>0.74609999999999999</v>
+        <v>0.72645000000000004</v>
       </c>
       <c r="AP1">
-        <v>0.7167</v>
+        <v>0.72640000000000005</v>
       </c>
       <c r="AQ1">
-        <v>0.74070000000000003</v>
+        <v>0.74585000000000001</v>
       </c>
       <c r="AR1">
-        <v>0.72755000000000003</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="AS1">
-        <v>0.7389</v>
+        <v>0.72814999999999996</v>
       </c>
       <c r="AT1">
-        <v>0.73255000000000003</v>
+        <v>0.71445000000000003</v>
       </c>
       <c r="AU1">
-        <v>0.72719999999999996</v>
+        <v>0.73089999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.73260000000000003</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.74550000000000005</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="AX1">
-        <v>0.73380000000000001</v>
+        <v>0.73070000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.70579999999999998</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="B2">
-        <v>0.69799999999999995</v>
+        <v>0.69235000000000002</v>
       </c>
       <c r="C2">
-        <v>0.69604999999999995</v>
+        <v>0.70430000000000004</v>
       </c>
       <c r="D2">
-        <v>0.69604999999999995</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="E2">
-        <v>0.70594999999999997</v>
+        <v>0.71325000000000005</v>
       </c>
       <c r="F2">
-        <v>0.67510000000000003</v>
+        <v>0.66754999999999998</v>
       </c>
       <c r="G2">
-        <v>0.71165</v>
+        <v>0.71335000000000004</v>
       </c>
       <c r="H2">
-        <v>0.71425000000000005</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="I2">
-        <v>0.70284999999999997</v>
+        <v>0.70655000000000001</v>
       </c>
       <c r="J2">
-        <v>0.70655000000000001</v>
+        <v>0.70240000000000002</v>
       </c>
       <c r="K2">
-        <v>0.70699999999999996</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="L2">
-        <v>0.70355000000000001</v>
+        <v>0.6875</v>
       </c>
       <c r="M2">
-        <v>0.71035000000000004</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="N2">
-        <v>0.67495000000000005</v>
+        <v>0.71040000000000003</v>
       </c>
       <c r="O2">
-        <v>0.72050000000000003</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="P2">
-        <v>0.70150000000000001</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="Q2">
-        <v>0.70584999999999998</v>
+        <v>0.6865</v>
       </c>
       <c r="R2">
-        <v>0.69745000000000001</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="S2">
-        <v>0.72160000000000002</v>
+        <v>0.70479999999999998</v>
       </c>
       <c r="T2">
-        <v>0.70784999999999998</v>
+        <v>0.69594999999999996</v>
       </c>
       <c r="U2">
-        <v>0.70125000000000004</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="V2">
-        <v>0.71279999999999999</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="W2">
-        <v>0.7077</v>
+        <v>0.70404999999999995</v>
       </c>
       <c r="X2">
-        <v>0.7016</v>
+        <v>0.69574999999999998</v>
       </c>
       <c r="Y2">
-        <v>0.71750000000000003</v>
+        <v>0.69820000000000004</v>
       </c>
       <c r="Z2">
-        <v>0.72175</v>
+        <v>0.71345000000000003</v>
       </c>
       <c r="AA2">
-        <v>0.69794999999999996</v>
+        <v>0.70020000000000004</v>
       </c>
       <c r="AB2">
-        <v>0.69069999999999998</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AC2">
-        <v>0.70135000000000003</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.65685000000000004</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.68630000000000002</v>
+        <v>0.67984999999999995</v>
       </c>
       <c r="AF2">
-        <v>0.71289999999999998</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="AG2">
-        <v>0.68630000000000002</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.7137</v>
+        <v>0.69935000000000003</v>
       </c>
       <c r="AI2">
-        <v>0.72655000000000003</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.69645000000000001</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="AK2">
-        <v>0.68420000000000003</v>
+        <v>0.68074999999999997</v>
       </c>
       <c r="AL2">
-        <v>0.69464999999999999</v>
+        <v>0.71294999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.70745000000000002</v>
+        <v>0.70714999999999995</v>
       </c>
       <c r="AN2">
-        <v>0.68889999999999996</v>
+        <v>0.68945000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.71399999999999997</v>
+        <v>0.71945000000000003</v>
       </c>
       <c r="AP2">
-        <v>0.71289999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="AQ2">
-        <v>0.72655000000000003</v>
+        <v>0.70555000000000001</v>
       </c>
       <c r="AR2">
-        <v>0.73109999999999997</v>
+        <v>0.70474999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.73024999999999995</v>
+        <v>0.72024999999999995</v>
       </c>
       <c r="AT2">
-        <v>0.70615000000000006</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="AU2">
-        <v>0.70535000000000003</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.70535000000000003</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="AW2">
-        <v>0.72370000000000001</v>
+        <v>0.68674999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.69189999999999996</v>
+        <v>0.69930000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.66505000000000003</v>
+        <v>0.65054999999999996</v>
       </c>
       <c r="B3">
-        <v>0.67105000000000004</v>
+        <v>0.65039999999999998</v>
       </c>
       <c r="C3">
-        <v>0.65239999999999998</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="D3">
-        <v>0.66344999999999998</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="E3">
-        <v>0.67705000000000004</v>
+        <v>0.67664999999999997</v>
       </c>
       <c r="F3">
-        <v>0.62555000000000005</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="G3">
-        <v>0.66720000000000002</v>
+        <v>0.68049999999999999</v>
       </c>
       <c r="H3">
-        <v>0.6734</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="I3">
-        <v>0.67964999999999998</v>
+        <v>0.66905000000000003</v>
       </c>
       <c r="J3">
-        <v>0.68079999999999996</v>
+        <v>0.68225000000000002</v>
       </c>
       <c r="K3">
-        <v>0.68820000000000003</v>
+        <v>0.68464999999999998</v>
       </c>
       <c r="L3">
-        <v>0.68310000000000004</v>
+        <v>0.67084999999999995</v>
       </c>
       <c r="M3">
-        <v>0.68559999999999999</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="N3">
-        <v>0.64639999999999997</v>
+        <v>0.66795000000000004</v>
       </c>
       <c r="O3">
-        <v>0.70355000000000001</v>
+        <v>0.67164999999999997</v>
       </c>
       <c r="P3">
-        <v>0.67679999999999996</v>
+        <v>0.6905</v>
       </c>
       <c r="Q3">
-        <v>0.65154999999999996</v>
+        <v>0.67035</v>
       </c>
       <c r="R3">
-        <v>0.66620000000000001</v>
+        <v>0.67315000000000003</v>
       </c>
       <c r="S3">
-        <v>0.69869999999999999</v>
+        <v>0.6754</v>
       </c>
       <c r="T3">
-        <v>0.65854999999999997</v>
+        <v>0.66095000000000004</v>
       </c>
       <c r="U3">
-        <v>0.67495000000000005</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="V3">
-        <v>0.69440000000000002</v>
+        <v>0.69655</v>
       </c>
       <c r="W3">
-        <v>0.69169999999999998</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="X3">
-        <v>0.69105000000000005</v>
+        <v>0.68115000000000003</v>
       </c>
       <c r="Y3">
-        <v>0.67015000000000002</v>
+        <v>0.66944999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.69330000000000003</v>
+        <v>0.67779999999999996</v>
       </c>
       <c r="AA3">
-        <v>0.65815000000000001</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="AB3">
-        <v>0.65959999999999996</v>
+        <v>0.67154999999999998</v>
       </c>
       <c r="AC3">
-        <v>0.66069999999999995</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.62595000000000001</v>
+        <v>0.69035000000000002</v>
       </c>
       <c r="AE3">
-        <v>0.65475000000000005</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="AF3">
-        <v>0.67715000000000003</v>
+        <v>0.69820000000000004</v>
       </c>
       <c r="AG3">
-        <v>0.65080000000000005</v>
+        <v>0.69120000000000004</v>
       </c>
       <c r="AH3">
-        <v>0.67244999999999999</v>
+        <v>0.67969999999999997</v>
       </c>
       <c r="AI3">
-        <v>0.70140000000000002</v>
+        <v>0.68584999999999996</v>
       </c>
       <c r="AJ3">
-        <v>0.68164999999999998</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="AK3">
-        <v>0.64859999999999995</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="AL3">
-        <v>0.68730000000000002</v>
+        <v>0.67464999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.69030000000000002</v>
+        <v>0.66905000000000003</v>
       </c>
       <c r="AN3">
-        <v>0.66134999999999999</v>
+        <v>0.68405000000000005</v>
       </c>
       <c r="AO3">
-        <v>0.69040000000000001</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="AP3">
-        <v>0.67074999999999996</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="AQ3">
-        <v>0.6724</v>
+        <v>0.66464999999999996</v>
       </c>
       <c r="AR3">
-        <v>0.68964999999999999</v>
+        <v>0.66554999999999997</v>
       </c>
       <c r="AS3">
-        <v>0.70294999999999996</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AT3">
-        <v>0.65990000000000004</v>
+        <v>0.65785000000000005</v>
       </c>
       <c r="AU3">
-        <v>0.67205000000000004</v>
+        <v>0.70530000000000004</v>
       </c>
       <c r="AV3">
-        <v>0.66644999999999999</v>
+        <v>0.69445000000000001</v>
       </c>
       <c r="AW3">
-        <v>0.69189999999999996</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="AX3">
-        <v>0.66269999999999996</v>
+        <v>0.68574999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.64470000000000005</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="B4">
-        <v>0.64544999999999997</v>
+        <v>0.64610000000000001</v>
       </c>
       <c r="C4">
-        <v>0.65280000000000005</v>
+        <v>0.62714999999999999</v>
       </c>
       <c r="D4">
-        <v>0.64505000000000001</v>
+        <v>0.6583</v>
       </c>
       <c r="E4">
-        <v>0.64910000000000001</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="F4">
-        <v>0.61765000000000003</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="G4">
-        <v>0.67269999999999996</v>
+        <v>0.66354999999999997</v>
       </c>
       <c r="H4">
-        <v>0.65210000000000001</v>
+        <v>0.64459999999999995</v>
       </c>
       <c r="I4">
-        <v>0.70020000000000004</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="J4">
-        <v>0.65790000000000004</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="K4">
-        <v>0.63885000000000003</v>
+        <v>0.68935000000000002</v>
       </c>
       <c r="L4">
-        <v>0.65885000000000005</v>
+        <v>0.65024999999999999</v>
       </c>
       <c r="M4">
-        <v>0.65644999999999998</v>
+        <v>0.64705000000000001</v>
       </c>
       <c r="N4">
-        <v>0.63695000000000002</v>
+        <v>0.62655000000000005</v>
       </c>
       <c r="O4">
-        <v>0.66800000000000004</v>
+        <v>0.66615000000000002</v>
       </c>
       <c r="P4">
-        <v>0.63554999999999995</v>
+        <v>0.66244999999999998</v>
       </c>
       <c r="Q4">
-        <v>0.66520000000000001</v>
+        <v>0.65854999999999997</v>
       </c>
       <c r="R4">
-        <v>0.63295000000000001</v>
+        <v>0.64054999999999995</v>
       </c>
       <c r="S4">
-        <v>0.67205000000000004</v>
+        <v>0.64190000000000003</v>
       </c>
       <c r="T4">
-        <v>0.66269999999999996</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="U4">
-        <v>0.67564999999999997</v>
+        <v>0.68764999999999998</v>
       </c>
       <c r="V4">
-        <v>0.65139999999999998</v>
+        <v>0.66695000000000004</v>
       </c>
       <c r="W4">
-        <v>0.65359999999999996</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="X4">
-        <v>0.67559999999999998</v>
+        <v>0.64144999999999996</v>
       </c>
       <c r="Y4">
-        <v>0.66820000000000002</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.67205000000000004</v>
+        <v>0.63090000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.64490000000000003</v>
+        <v>0.65329999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.65200000000000002</v>
+        <v>0.66544999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.63090000000000002</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.61155000000000004</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="AE4">
-        <v>0.61839999999999995</v>
+        <v>0.62624999999999997</v>
       </c>
       <c r="AF4">
-        <v>0.63854999999999995</v>
+        <v>0.66374999999999995</v>
       </c>
       <c r="AG4">
-        <v>0.64034999999999997</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="AH4">
-        <v>0.66490000000000005</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.65125</v>
+        <v>0.6734</v>
       </c>
       <c r="AJ4">
-        <v>0.66615000000000002</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="AK4">
-        <v>0.61024999999999996</v>
+        <v>0.6482</v>
       </c>
       <c r="AL4">
-        <v>0.66639999999999999</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="AM4">
-        <v>0.67359999999999998</v>
+        <v>0.65874999999999995</v>
       </c>
       <c r="AN4">
-        <v>0.64634999999999998</v>
+        <v>0.64834999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.66749999999999998</v>
+        <v>0.64275000000000004</v>
       </c>
       <c r="AP4">
-        <v>0.65659999999999996</v>
+        <v>0.63690000000000002</v>
       </c>
       <c r="AQ4">
-        <v>0.65644999999999998</v>
+        <v>0.64995000000000003</v>
       </c>
       <c r="AR4">
-        <v>0.65639999999999998</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="AS4">
-        <v>0.68505000000000005</v>
+        <v>0.65444999999999998</v>
       </c>
       <c r="AT4">
-        <v>0.62629999999999997</v>
+        <v>0.63444999999999996</v>
       </c>
       <c r="AU4">
-        <v>0.66290000000000004</v>
+        <v>0.67810000000000004</v>
       </c>
       <c r="AV4">
-        <v>0.63229999999999997</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="AW4">
-        <v>0.67420000000000002</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="AX4">
-        <v>0.64954999999999996</v>
+        <v>0.64905000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.63024999999999998</v>
+        <v>0.60994999999999999</v>
       </c>
       <c r="B5">
-        <v>0.63305</v>
+        <v>0.60185</v>
       </c>
       <c r="C5">
-        <v>0.61719999999999997</v>
+        <v>0.59650000000000003</v>
       </c>
       <c r="D5">
-        <v>0.65264999999999995</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="E5">
-        <v>0.66144999999999998</v>
+        <v>0.621</v>
       </c>
       <c r="F5">
-        <v>0.6048</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="G5">
-        <v>0.63570000000000004</v>
+        <v>0.63105</v>
       </c>
       <c r="H5">
-        <v>0.61934999999999996</v>
+        <v>0.62644999999999995</v>
       </c>
       <c r="I5">
-        <v>0.65475000000000005</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="J5">
-        <v>0.6351</v>
+        <v>0.63654999999999995</v>
       </c>
       <c r="K5">
-        <v>0.61799999999999999</v>
+        <v>0.65234999999999999</v>
       </c>
       <c r="L5">
-        <v>0.63595000000000002</v>
+        <v>0.62960000000000005</v>
       </c>
       <c r="M5">
-        <v>0.63375000000000004</v>
+        <v>0.64824999999999999</v>
       </c>
       <c r="N5">
-        <v>0.60775000000000001</v>
+        <v>0.61160000000000003</v>
       </c>
       <c r="O5">
-        <v>0.65229999999999999</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="P5">
-        <v>0.61934999999999996</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="Q5">
-        <v>0.63529999999999998</v>
+        <v>0.61870000000000003</v>
       </c>
       <c r="R5">
-        <v>0.60975000000000001</v>
+        <v>0.62980000000000003</v>
       </c>
       <c r="S5">
-        <v>0.64095000000000002</v>
+        <v>0.62129999999999996</v>
       </c>
       <c r="T5">
-        <v>0.63485000000000003</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="U5">
-        <v>0.6351</v>
+        <v>0.67325000000000002</v>
       </c>
       <c r="V5">
-        <v>0.59545000000000003</v>
+        <v>0.62485000000000002</v>
       </c>
       <c r="W5">
-        <v>0.62929999999999997</v>
+        <v>0.62685000000000002</v>
       </c>
       <c r="X5">
-        <v>0.65215000000000001</v>
+        <v>0.63449999999999995</v>
       </c>
       <c r="Y5">
-        <v>0.62439999999999996</v>
+        <v>0.59424999999999994</v>
       </c>
       <c r="Z5">
-        <v>0.62590000000000001</v>
+        <v>0.63405</v>
       </c>
       <c r="AA5">
-        <v>0.61214999999999997</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="AB5">
-        <v>0.6079</v>
+        <v>0.63044999999999995</v>
       </c>
       <c r="AC5">
-        <v>0.60075000000000001</v>
+        <v>0.6371</v>
       </c>
       <c r="AD5">
-        <v>0.59575</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="AE5">
-        <v>0.60670000000000002</v>
+        <v>0.62585000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.59424999999999994</v>
+        <v>0.62855000000000005</v>
       </c>
       <c r="AG5">
-        <v>0.61699999999999999</v>
+        <v>0.61880000000000002</v>
       </c>
       <c r="AH5">
-        <v>0.65310000000000001</v>
+        <v>0.62324999999999997</v>
       </c>
       <c r="AI5">
-        <v>0.63759999999999994</v>
+        <v>0.64624999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.62719999999999998</v>
+        <v>0.63865000000000005</v>
       </c>
       <c r="AK5">
-        <v>0.62285000000000001</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="AL5">
-        <v>0.63805000000000001</v>
+        <v>0.64929999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.63265000000000005</v>
+        <v>0.64175000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.62919999999999998</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.64859999999999995</v>
+        <v>0.61629999999999996</v>
       </c>
       <c r="AP5">
-        <v>0.64795000000000003</v>
+        <v>0.62119999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.63129999999999997</v>
+        <v>0.62775000000000003</v>
       </c>
       <c r="AR5">
-        <v>0.63929999999999998</v>
+        <v>0.60655000000000003</v>
       </c>
       <c r="AS5">
-        <v>0.64780000000000004</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="AT5">
-        <v>0.61255000000000004</v>
+        <v>0.61395</v>
       </c>
       <c r="AU5">
-        <v>0.65805000000000002</v>
+        <v>0.66164999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.60445000000000004</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="AW5">
-        <v>0.62444999999999995</v>
+        <v>0.626</v>
       </c>
       <c r="AX5">
-        <v>0.63360000000000005</v>
+        <v>0.62085000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.60255000000000003</v>
+        <v>0.58494999999999997</v>
       </c>
       <c r="B6">
-        <v>0.62785000000000002</v>
+        <v>0.58704999999999996</v>
       </c>
       <c r="C6">
-        <v>0.61865000000000003</v>
+        <v>0.57715000000000005</v>
       </c>
       <c r="D6">
-        <v>0.59330000000000005</v>
+        <v>0.60675000000000001</v>
       </c>
       <c r="E6">
-        <v>0.62055000000000005</v>
+        <v>0.60355000000000003</v>
       </c>
       <c r="F6">
-        <v>0.62024999999999997</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="G6">
-        <v>0.61329999999999996</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="H6">
-        <v>0.60299999999999998</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="I6">
-        <v>0.61909999999999998</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="J6">
-        <v>0.62509999999999999</v>
+        <v>0.59645000000000004</v>
       </c>
       <c r="K6">
-        <v>0.6018</v>
+        <v>0.63424999999999998</v>
       </c>
       <c r="L6">
-        <v>0.62350000000000005</v>
+        <v>0.61224999999999996</v>
       </c>
       <c r="M6">
-        <v>0.60994999999999999</v>
+        <v>0.63154999999999994</v>
       </c>
       <c r="N6">
-        <v>0.58660000000000001</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="O6">
-        <v>0.62170000000000003</v>
+        <v>0.61495</v>
       </c>
       <c r="P6">
-        <v>0.60189999999999999</v>
+        <v>0.60494999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.60824999999999996</v>
+        <v>0.60514999999999997</v>
       </c>
       <c r="R6">
-        <v>0.57155</v>
+        <v>0.59004999999999996</v>
       </c>
       <c r="S6">
-        <v>0.6179</v>
+        <v>0.59245000000000003</v>
       </c>
       <c r="T6">
-        <v>0.60994999999999999</v>
+        <v>0.57855000000000001</v>
       </c>
       <c r="U6">
-        <v>0.6018</v>
+        <v>0.63824999999999998</v>
       </c>
       <c r="V6">
-        <v>0.58414999999999995</v>
+        <v>0.62905</v>
       </c>
       <c r="W6">
-        <v>0.60209999999999997</v>
+        <v>0.60124999999999995</v>
       </c>
       <c r="X6">
-        <v>0.61809999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="Y6">
-        <v>0.58260000000000001</v>
+        <v>0.57089999999999996</v>
       </c>
       <c r="Z6">
-        <v>0.60834999999999995</v>
+        <v>0.60019999999999996</v>
       </c>
       <c r="AA6">
-        <v>0.59094999999999998</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="AB6">
-        <v>0.58540000000000003</v>
+        <v>0.57840000000000003</v>
       </c>
       <c r="AC6">
-        <v>0.57189999999999996</v>
+        <v>0.62444999999999995</v>
       </c>
       <c r="AD6">
-        <v>0.5806</v>
+        <v>0.62365000000000004</v>
       </c>
       <c r="AE6">
-        <v>0.57525000000000004</v>
+        <v>0.61460000000000004</v>
       </c>
       <c r="AF6">
-        <v>0.57840000000000003</v>
+        <v>0.58584999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.60545000000000004</v>
+        <v>0.62390000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.61939999999999995</v>
+        <v>0.6048</v>
       </c>
       <c r="AI6">
-        <v>0.59989999999999999</v>
+        <v>0.60045000000000004</v>
       </c>
       <c r="AJ6">
-        <v>0.59994999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AK6">
-        <v>0.58325000000000005</v>
+        <v>0.59435000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.59375</v>
+        <v>0.59784999999999999</v>
       </c>
       <c r="AM6">
-        <v>0.64154999999999995</v>
+        <v>0.61770000000000003</v>
       </c>
       <c r="AN6">
-        <v>0.60955000000000004</v>
+        <v>0.58774999999999999</v>
       </c>
       <c r="AO6">
-        <v>0.63195000000000001</v>
+        <v>0.58345000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.61265000000000003</v>
+        <v>0.58879999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.58689999999999998</v>
+        <v>0.59114999999999995</v>
       </c>
       <c r="AR6">
-        <v>0.60960000000000003</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="AS6">
-        <v>0.62719999999999998</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="AT6">
-        <v>0.58789999999999998</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="AU6">
-        <v>0.61565000000000003</v>
+        <v>0.62295</v>
       </c>
       <c r="AV6">
-        <v>0.5837</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="AW6">
-        <v>0.61360000000000003</v>
+        <v>0.60075000000000001</v>
       </c>
       <c r="AX6">
-        <v>0.60319999999999996</v>
+        <v>0.59219999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.59370000000000001</v>
+        <v>0.56379999999999997</v>
       </c>
       <c r="B7">
-        <v>0.59814999999999996</v>
+        <v>0.57115000000000005</v>
       </c>
       <c r="C7">
+        <v>0.54705000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.56584999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.59065000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.58545000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.58504999999999996</v>
+      </c>
+      <c r="K7">
+        <v>0.60124999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="O7">
+        <v>0.59930000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.59135000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>0.59765000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.56915000000000004</v>
+      </c>
+      <c r="U7">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.60965000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.59014999999999995</v>
+      </c>
+      <c r="X7">
+        <v>0.59235000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>0.59575</v>
+      </c>
+      <c r="AA7">
+        <v>0.59394999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.55225000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="AD7">
+        <v>0.59045000000000003</v>
+      </c>
+      <c r="AE7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>0.57525000000000004</v>
+      </c>
+      <c r="AG7">
+        <v>0.61345000000000005</v>
+      </c>
+      <c r="AH7">
+        <v>0.5756</v>
+      </c>
+      <c r="AI7">
+        <v>0.57894999999999996</v>
+      </c>
+      <c r="AJ7">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="AL7">
+        <v>0.58425000000000005</v>
+      </c>
+      <c r="AM7">
         <v>0.58430000000000004</v>
       </c>
-      <c r="D7">
-        <v>0.57094999999999996</v>
-      </c>
-      <c r="E7">
-        <v>0.59984999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.60324999999999995</v>
-      </c>
-      <c r="G7">
-        <v>0.59655000000000002</v>
-      </c>
-      <c r="H7">
-        <v>0.5988</v>
-      </c>
-      <c r="I7">
-        <v>0.58479999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="K7">
-        <v>0.58994999999999997</v>
-      </c>
-      <c r="L7">
-        <v>0.59309999999999996</v>
-      </c>
-      <c r="M7">
-        <v>0.59955000000000003</v>
-      </c>
-      <c r="N7">
-        <v>0.58540000000000003</v>
-      </c>
-      <c r="O7">
-        <v>0.59145000000000003</v>
-      </c>
-      <c r="P7">
-        <v>0.59130000000000005</v>
-      </c>
-      <c r="Q7">
-        <v>0.59030000000000005</v>
-      </c>
-      <c r="R7">
-        <v>0.57320000000000004</v>
-      </c>
-      <c r="S7">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="T7">
-        <v>0.57425000000000004</v>
-      </c>
-      <c r="U7">
-        <v>0.59455000000000002</v>
-      </c>
-      <c r="V7">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="W7">
-        <v>0.59555000000000002</v>
-      </c>
-      <c r="X7">
-        <v>0.61085</v>
-      </c>
-      <c r="Y7">
-        <v>0.5746</v>
-      </c>
-      <c r="Z7">
-        <v>0.60104999999999997</v>
-      </c>
-      <c r="AA7">
-        <v>0.55884999999999996</v>
-      </c>
-      <c r="AB7">
-        <v>0.58379999999999999</v>
-      </c>
-      <c r="AC7">
-        <v>0.55295000000000005</v>
-      </c>
-      <c r="AD7">
-        <v>0.55920000000000003</v>
-      </c>
-      <c r="AE7">
-        <v>0.56245000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>0.55259999999999998</v>
-      </c>
-      <c r="AG7">
-        <v>0.57064999999999999</v>
-      </c>
-      <c r="AH7">
-        <v>0.59424999999999994</v>
-      </c>
-      <c r="AI7">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="AJ7">
-        <v>0.57155</v>
-      </c>
-      <c r="AK7">
-        <v>0.57125000000000004</v>
-      </c>
-      <c r="AL7">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="AM7">
-        <v>0.60765000000000002</v>
-      </c>
       <c r="AN7">
-        <v>0.57335000000000003</v>
+        <v>0.56130000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.59899999999999998</v>
+        <v>0.57484999999999997</v>
       </c>
       <c r="AP7">
-        <v>0.59655000000000002</v>
+        <v>0.56159999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.56830000000000003</v>
+        <v>0.58825000000000005</v>
       </c>
       <c r="AR7">
-        <v>0.59970000000000001</v>
+        <v>0.54944999999999999</v>
       </c>
       <c r="AS7">
-        <v>0.58084999999999998</v>
+        <v>0.59894999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.57340000000000002</v>
+        <v>0.55505000000000004</v>
       </c>
       <c r="AU7">
-        <v>0.58250000000000002</v>
+        <v>0.6119</v>
       </c>
       <c r="AV7">
-        <v>0.58440000000000003</v>
+        <v>0.5736</v>
       </c>
       <c r="AW7">
-        <v>0.59484999999999999</v>
+        <v>0.55435000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.59360000000000002</v>
+        <v>0.57240000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.57050000000000001</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="B8">
-        <v>0.58394999999999997</v>
+        <v>0.54425000000000001</v>
       </c>
       <c r="C8">
-        <v>0.58025000000000004</v>
+        <v>0.53044999999999998</v>
       </c>
       <c r="D8">
-        <v>0.56310000000000004</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E8">
-        <v>0.57020000000000004</v>
+        <v>0.55764999999999998</v>
       </c>
       <c r="F8">
-        <v>0.56059999999999999</v>
+        <v>0.56764999999999999</v>
       </c>
       <c r="G8">
-        <v>0.56689999999999996</v>
+        <v>0.54774999999999996</v>
       </c>
       <c r="H8">
-        <v>0.58650000000000002</v>
+        <v>0.56889999999999996</v>
       </c>
       <c r="I8">
-        <v>0.56820000000000004</v>
+        <v>0.56305000000000005</v>
       </c>
       <c r="J8">
-        <v>0.55740000000000001</v>
+        <v>0.55210000000000004</v>
       </c>
       <c r="K8">
-        <v>0.56610000000000005</v>
+        <v>0.58794999999999997</v>
       </c>
       <c r="L8">
-        <v>0.58050000000000002</v>
+        <v>0.57804999999999995</v>
       </c>
       <c r="M8">
-        <v>0.57809999999999995</v>
+        <v>0.57515000000000005</v>
       </c>
       <c r="N8">
-        <v>0.59165000000000001</v>
+        <v>0.55984999999999996</v>
       </c>
       <c r="O8">
-        <v>0.56174999999999997</v>
+        <v>0.55984999999999996</v>
       </c>
       <c r="P8">
-        <v>0.57210000000000005</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="Q8">
-        <v>0.55189999999999995</v>
+        <v>0.57125000000000004</v>
       </c>
       <c r="R8">
-        <v>0.55910000000000004</v>
+        <v>0.55445</v>
       </c>
       <c r="S8">
-        <v>0.60704999999999998</v>
+        <v>0.57115000000000005</v>
       </c>
       <c r="T8">
-        <v>0.55449999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U8">
-        <v>0.59594999999999998</v>
+        <v>0.59465000000000001</v>
       </c>
       <c r="V8">
-        <v>0.57725000000000004</v>
+        <v>0.59545000000000003</v>
       </c>
       <c r="W8">
-        <v>0.56035000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="X8">
-        <v>0.57535000000000003</v>
+        <v>0.58055000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.55130000000000001</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.57174999999999998</v>
+        <v>0.56289999999999996</v>
       </c>
       <c r="AA8">
-        <v>0.5514</v>
+        <v>0.57240000000000002</v>
       </c>
       <c r="AB8">
-        <v>0.57445000000000002</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="AC8">
-        <v>0.57194999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="AD8">
-        <v>0.55815000000000003</v>
+        <v>0.56655</v>
       </c>
       <c r="AE8">
-        <v>0.52569999999999995</v>
+        <v>0.57730000000000004</v>
       </c>
       <c r="AF8">
-        <v>0.52910000000000001</v>
+        <v>0.55395000000000005</v>
       </c>
       <c r="AG8">
-        <v>0.55740000000000001</v>
+        <v>0.60040000000000004</v>
       </c>
       <c r="AH8">
-        <v>0.58819999999999995</v>
+        <v>0.55894999999999995</v>
       </c>
       <c r="AI8">
-        <v>0.59450000000000003</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.57220000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="AK8">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="AL8">
         <v>0.55864999999999998</v>
       </c>
-      <c r="AL8">
-        <v>0.57545000000000002</v>
-      </c>
       <c r="AM8">
-        <v>0.58935000000000004</v>
+        <v>0.56140000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.55459999999999998</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="AO8">
-        <v>0.58945000000000003</v>
+        <v>0.55759999999999998</v>
       </c>
       <c r="AP8">
-        <v>0.55425000000000002</v>
+        <v>0.55945</v>
       </c>
       <c r="AQ8">
-        <v>0.58225000000000005</v>
+        <v>0.58494999999999997</v>
       </c>
       <c r="AR8">
-        <v>0.56040000000000001</v>
+        <v>0.54405000000000003</v>
       </c>
       <c r="AS8">
-        <v>0.57420000000000004</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.56945000000000001</v>
+        <v>0.54505000000000003</v>
       </c>
       <c r="AU8">
-        <v>0.53859999999999997</v>
+        <v>0.57789999999999997</v>
       </c>
       <c r="AV8">
-        <v>0.57530000000000003</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="AW8">
-        <v>0.57350000000000001</v>
+        <v>0.54935</v>
       </c>
       <c r="AX8">
-        <v>0.55010000000000003</v>
+        <v>0.56274999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.55869999999999997</v>
+        <v>0.55589999999999995</v>
       </c>
       <c r="B9">
-        <v>0.57350000000000001</v>
+        <v>0.54210000000000003</v>
       </c>
       <c r="C9">
-        <v>0.55779999999999996</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="D9">
-        <v>0.53290000000000004</v>
+        <v>0.57535000000000003</v>
       </c>
       <c r="E9">
-        <v>0.5403</v>
+        <v>0.53805000000000003</v>
       </c>
       <c r="F9">
-        <v>0.55745</v>
+        <v>0.55825000000000002</v>
       </c>
       <c r="G9">
-        <v>0.54420000000000002</v>
+        <v>0.53195000000000003</v>
       </c>
       <c r="H9">
-        <v>0.55779999999999996</v>
+        <v>0.54390000000000005</v>
       </c>
       <c r="I9">
-        <v>0.54325000000000001</v>
+        <v>0.52805000000000002</v>
       </c>
       <c r="J9">
-        <v>0.55684999999999996</v>
+        <v>0.5534</v>
       </c>
       <c r="K9">
-        <v>0.54530000000000001</v>
+        <v>0.58294999999999997</v>
       </c>
       <c r="L9">
-        <v>0.56715000000000004</v>
+        <v>0.57184999999999997</v>
       </c>
       <c r="M9">
-        <v>0.54869999999999997</v>
+        <v>0.5474</v>
       </c>
       <c r="N9">
-        <v>0.56525000000000003</v>
+        <v>0.54815000000000003</v>
       </c>
       <c r="O9">
-        <v>0.53069999999999995</v>
+        <v>0.54725000000000001</v>
       </c>
       <c r="P9">
-        <v>0.55674999999999997</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="Q9">
-        <v>0.55825000000000002</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="R9">
-        <v>0.53144999999999998</v>
+        <v>0.52359999999999995</v>
       </c>
       <c r="S9">
-        <v>0.59379999999999999</v>
+        <v>0.55784999999999996</v>
       </c>
       <c r="T9">
-        <v>0.57535000000000003</v>
+        <v>0.55254999999999999</v>
       </c>
       <c r="U9">
-        <v>0.57925000000000004</v>
+        <v>0.56889999999999996</v>
       </c>
       <c r="V9">
-        <v>0.55774999999999997</v>
+        <v>0.56764999999999999</v>
       </c>
       <c r="W9">
-        <v>0.54790000000000005</v>
+        <v>0.55084999999999995</v>
       </c>
       <c r="X9">
-        <v>0.56589999999999996</v>
+        <v>0.53835</v>
       </c>
       <c r="Y9">
-        <v>0.53464999999999996</v>
+        <v>0.52415</v>
       </c>
       <c r="Z9">
-        <v>0.59194999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AA9">
-        <v>0.5716</v>
+        <v>0.56074999999999997</v>
       </c>
       <c r="AB9">
-        <v>0.58840000000000003</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="AC9">
-        <v>0.55825000000000002</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="AD9">
-        <v>0.56459999999999999</v>
+        <v>0.5494</v>
       </c>
       <c r="AE9">
-        <v>0.52695000000000003</v>
+        <v>0.56869999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.53674999999999995</v>
+        <v>0.55235000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.55349999999999999</v>
+        <v>0.57455000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.57430000000000003</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.60199999999999998</v>
+        <v>0.56435000000000002</v>
       </c>
       <c r="AJ9">
-        <v>0.58379999999999999</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="AK9">
-        <v>0.55005000000000004</v>
+        <v>0.56320000000000003</v>
       </c>
       <c r="AL9">
-        <v>0.55910000000000004</v>
+        <v>0.55189999999999995</v>
       </c>
       <c r="AM9">
-        <v>0.59694999999999998</v>
+        <v>0.56184999999999996</v>
       </c>
       <c r="AN9">
-        <v>0.54905000000000004</v>
+        <v>0.55715000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.54584999999999995</v>
+        <v>0.56159999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.57120000000000004</v>
+        <v>0.54654999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.54669999999999996</v>
+        <v>0.55574999999999997</v>
       </c>
       <c r="AR9">
-        <v>0.54959999999999998</v>
+        <v>0.50580000000000003</v>
       </c>
       <c r="AS9">
-        <v>0.54479999999999995</v>
+        <v>0.59309999999999996</v>
       </c>
       <c r="AT9">
-        <v>0.57650000000000001</v>
+        <v>0.53554999999999997</v>
       </c>
       <c r="AU9">
-        <v>0.53695000000000004</v>
+        <v>0.54379999999999995</v>
       </c>
       <c r="AV9">
-        <v>0.54249999999999998</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="AW9">
-        <v>0.56325000000000003</v>
+        <v>0.54315000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.55989999999999995</v>
+        <v>0.55135000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.54235</v>
+        <v>0.56584999999999996</v>
       </c>
       <c r="B10">
-        <v>0.56025000000000003</v>
+        <v>0.55425000000000002</v>
       </c>
       <c r="C10">
-        <v>0.53744999999999998</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="D10">
-        <v>0.53749999999999998</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="E10">
-        <v>0.55135000000000001</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="F10">
-        <v>0.53064999999999996</v>
+        <v>0.55520000000000003</v>
       </c>
       <c r="G10">
-        <v>0.5393</v>
+        <v>0.51685000000000003</v>
       </c>
       <c r="H10">
-        <v>0.54595000000000005</v>
+        <v>0.52654999999999996</v>
       </c>
       <c r="I10">
-        <v>0.55574999999999997</v>
+        <v>0.51690000000000003</v>
       </c>
       <c r="J10">
-        <v>0.56179999999999997</v>
+        <v>0.56189999999999996</v>
       </c>
       <c r="K10">
-        <v>0.53990000000000005</v>
+        <v>0.56584999999999996</v>
       </c>
       <c r="L10">
-        <v>0.54915000000000003</v>
+        <v>0.56984999999999997</v>
       </c>
       <c r="M10">
-        <v>0.53290000000000004</v>
+        <v>0.54625000000000001</v>
       </c>
       <c r="N10">
-        <v>0.54769999999999996</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="O10">
-        <v>0.52695000000000003</v>
+        <v>0.56040000000000001</v>
       </c>
       <c r="P10">
+        <v>0.55145</v>
+      </c>
+      <c r="Q10">
+        <v>0.53874999999999995</v>
+      </c>
+      <c r="R10">
+        <v>0.51434999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.54015000000000002</v>
+      </c>
+      <c r="T10">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="V10">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="W10">
+        <v>0.54325000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.56904999999999994</v>
+      </c>
+      <c r="AA10">
+        <v>0.55464999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.56105000000000005</v>
+      </c>
+      <c r="AD10">
+        <v>0.51844999999999997</v>
+      </c>
+      <c r="AE10">
+        <v>0.54954999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.52825</v>
+      </c>
+      <c r="AG10">
+        <v>0.55835000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="AI10">
+        <v>0.5665</v>
+      </c>
+      <c r="AJ10">
+        <v>0.56425000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>0.57425000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="AN10">
+        <v>0.54254999999999998</v>
+      </c>
+      <c r="AO10">
+        <v>0.53954999999999997</v>
+      </c>
+      <c r="AP10">
         <v>0.56374999999999997</v>
       </c>
-      <c r="Q10">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="R10">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.59155000000000002</v>
-      </c>
-      <c r="T10">
-        <v>0.58950000000000002</v>
-      </c>
-      <c r="U10">
-        <v>0.59375</v>
-      </c>
-      <c r="V10">
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="W10">
-        <v>0.52785000000000004</v>
-      </c>
-      <c r="X10">
-        <v>0.55874999999999997</v>
-      </c>
-      <c r="Y10">
-        <v>0.55245</v>
-      </c>
-      <c r="Z10">
-        <v>0.5726</v>
-      </c>
-      <c r="AA10">
-        <v>0.5403</v>
-      </c>
-      <c r="AB10">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="AC10">
-        <v>0.56859999999999999</v>
-      </c>
-      <c r="AD10">
-        <v>0.53885000000000005</v>
-      </c>
-      <c r="AE10">
-        <v>0.51934999999999998</v>
-      </c>
-      <c r="AF10">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="AG10">
-        <v>0.52059999999999995</v>
-      </c>
-      <c r="AH10">
-        <v>0.52715000000000001</v>
-      </c>
-      <c r="AI10">
-        <v>0.56740000000000002</v>
-      </c>
-      <c r="AJ10">
-        <v>0.56445000000000001</v>
-      </c>
-      <c r="AK10">
-        <v>0.55195000000000005</v>
-      </c>
-      <c r="AL10">
-        <v>0.53825000000000001</v>
-      </c>
-      <c r="AM10">
-        <v>0.57904999999999995</v>
-      </c>
-      <c r="AN10">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="AO10">
-        <v>0.52954999999999997</v>
-      </c>
-      <c r="AP10">
-        <v>0.57220000000000004</v>
-      </c>
       <c r="AQ10">
-        <v>0.55569999999999997</v>
+        <v>0.54405000000000003</v>
       </c>
       <c r="AR10">
+        <v>0.50065000000000004</v>
+      </c>
+      <c r="AS10">
+        <v>0.57504999999999995</v>
+      </c>
+      <c r="AT10">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="AU10">
         <v>0.51729999999999998</v>
       </c>
-      <c r="AS10">
-        <v>0.54795000000000005</v>
-      </c>
-      <c r="AT10">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="AU10">
-        <v>0.54074999999999995</v>
-      </c>
       <c r="AV10">
-        <v>0.55464999999999998</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="AW10">
-        <v>0.53715000000000002</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="AX10">
-        <v>0.57284999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.5333</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="B11">
-        <v>0.54715000000000003</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="C11">
-        <v>0.53474999999999995</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="D11">
-        <v>0.52029999999999998</v>
+        <v>0.54359999999999997</v>
       </c>
       <c r="E11">
-        <v>0.53605000000000003</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="F11">
-        <v>0.51539999999999997</v>
+        <v>0.55054999999999998</v>
       </c>
       <c r="G11">
-        <v>0.51654999999999995</v>
+        <v>0.50995000000000001</v>
       </c>
       <c r="H11">
-        <v>0.54490000000000005</v>
+        <v>0.51585000000000003</v>
       </c>
       <c r="I11">
-        <v>0.54910000000000003</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="J11">
-        <v>0.50875000000000004</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="K11">
-        <v>0.53110000000000002</v>
+        <v>0.5625</v>
       </c>
       <c r="L11">
-        <v>0.54515000000000002</v>
+        <v>0.56140000000000001</v>
       </c>
       <c r="M11">
-        <v>0.55579999999999996</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="N11">
-        <v>0.55354999999999999</v>
+        <v>0.53144999999999998</v>
       </c>
       <c r="O11">
-        <v>0.52790000000000004</v>
+        <v>0.54984999999999995</v>
       </c>
       <c r="P11">
-        <v>0.51875000000000004</v>
+        <v>0.54135</v>
       </c>
       <c r="Q11">
-        <v>0.51859999999999995</v>
+        <v>0.51534999999999997</v>
       </c>
       <c r="R11">
-        <v>0.53654999999999997</v>
+        <v>0.51265000000000005</v>
       </c>
       <c r="S11">
-        <v>0.56364999999999998</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="T11">
-        <v>0.56189999999999996</v>
+        <v>0.51415</v>
       </c>
       <c r="U11">
-        <v>0.56015000000000004</v>
+        <v>0.54310000000000003</v>
       </c>
       <c r="V11">
-        <v>0.52869999999999995</v>
+        <v>0.52785000000000004</v>
       </c>
       <c r="W11">
-        <v>0.51964999999999995</v>
+        <v>0.54035</v>
       </c>
       <c r="X11">
-        <v>0.5373</v>
+        <v>0.52085000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.52805000000000002</v>
+        <v>0.52470000000000006</v>
       </c>
       <c r="Z11">
-        <v>0.54510000000000003</v>
+        <v>0.52859999999999996</v>
       </c>
       <c r="AA11">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="AB11">
+        <v>0.51995000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.53964999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="AE11">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="AF11">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="AG11">
+        <v>0.54474999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>0.53244999999999998</v>
+      </c>
+      <c r="AI11">
+        <v>0.56225000000000003</v>
+      </c>
+      <c r="AJ11">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>0.57304999999999995</v>
+      </c>
+      <c r="AL11">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="AN11">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.52575000000000005</v>
+      </c>
+      <c r="AQ11">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="AR11">
+        <v>0.51544999999999996</v>
+      </c>
+      <c r="AS11">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="AT11">
+        <v>0.52444999999999997</v>
+      </c>
+      <c r="AU11">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="AV11">
         <v>0.54279999999999995</v>
       </c>
-      <c r="AB11">
-        <v>0.56235000000000002</v>
-      </c>
-      <c r="AC11">
-        <v>0.55545</v>
-      </c>
-      <c r="AD11">
-        <v>0.54254999999999998</v>
-      </c>
-      <c r="AE11">
-        <v>0.51034999999999997</v>
-      </c>
-      <c r="AF11">
-        <v>0.52564999999999995</v>
-      </c>
-      <c r="AG11">
-        <v>0.53264999999999996</v>
-      </c>
-      <c r="AH11">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="AI11">
-        <v>0.54944999999999999</v>
-      </c>
-      <c r="AJ11">
-        <v>0.55910000000000004</v>
-      </c>
-      <c r="AK11">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="AL11">
-        <v>0.52024999999999999</v>
-      </c>
-      <c r="AM11">
-        <v>0.55779999999999996</v>
-      </c>
-      <c r="AN11">
-        <v>0.51380000000000003</v>
-      </c>
-      <c r="AO11">
-        <v>0.52154999999999996</v>
-      </c>
-      <c r="AP11">
-        <v>0.56059999999999999</v>
-      </c>
-      <c r="AQ11">
-        <v>0.54415000000000002</v>
-      </c>
-      <c r="AR11">
-        <v>0.50605</v>
-      </c>
-      <c r="AS11">
-        <v>0.54510000000000003</v>
-      </c>
-      <c r="AT11">
-        <v>0.56094999999999995</v>
-      </c>
-      <c r="AU11">
-        <v>0.54035</v>
-      </c>
-      <c r="AV11">
-        <v>0.55654999999999999</v>
-      </c>
       <c r="AW11">
-        <v>0.51849999999999996</v>
+        <v>0.52059999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.58609999999999995</v>
+        <v>0.55984999999999996</v>
       </c>
     </row>
   </sheetData>
